--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,39 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
@@ -100,70 +109,79 @@
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -527,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7945205479452054</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -796,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5925925925925926</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,37 +864,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5423728813559322</v>
+        <v>0.625</v>
       </c>
       <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K8">
-        <v>0.825065274151436</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5348837209302325</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C9">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5167785234899329</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C10">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.80625</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.7804878048780488</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4533333333333333</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,38 +1114,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3111111111111111</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>28</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>62</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.257936507936508</v>
+        <v>0.44</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1849865951742627</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C15">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,38 +1264,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.08333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>63</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L16">
         <v>25</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>25</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>275</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L16">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>35</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1288,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,141 +1314,213 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01064516129032258</v>
+        <v>0.25</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D17">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>189</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.1662198391420912</v>
+      </c>
+      <c r="C18">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>311</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.725</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>29</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>268</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.01290322580645161</v>
+      </c>
+      <c r="C20">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>0.17</v>
-      </c>
-      <c r="F17">
-        <v>0.83</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3067</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7</v>
-      </c>
-      <c r="L17">
-        <v>28</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>0.15</v>
+      </c>
+      <c r="F20">
+        <v>0.85</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3060</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
         <v>0.6984126984126984</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>44</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>44</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L19">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>32</v>
-      </c>
-      <c r="M20">
-        <v>32</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6411764705882353</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.6063829787234043</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.5966101694915255</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.5732217573221757</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L25">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="M25">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.5571428571428572</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.54</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5168539325842697</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1624,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.3424657534246575</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,33 +1740,111 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.009096612296110414</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N30">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.3100000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>3159</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31">
+        <v>0.421875</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33">
+        <v>0.01067503924646782</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>50</v>
+      </c>
+      <c r="N33">
+        <v>0.68</v>
+      </c>
+      <c r="O33">
+        <v>0.32</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
